--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\flaskDash\dataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F3421-8E4D-41C5-865E-1FC85B17BCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4711142-95C2-48DA-A421-83D60AD70108}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="13 Nov 2023" sheetId="2" r:id="rId1"/>
-    <sheet name="20 Nov 2023" sheetId="5" r:id="rId2"/>
-    <sheet name="27 Nov 2023" sheetId="6" r:id="rId3"/>
+    <sheet name="6 Nov 2023" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="13 Nov 2023" sheetId="2" r:id="rId2"/>
+    <sheet name="20 Nov 2023" sheetId="5" r:id="rId3"/>
+    <sheet name="27 Nov 2023" sheetId="6" r:id="rId4"/>
+    <sheet name="4 Dec 2023" sheetId="7" r:id="rId5"/>
+    <sheet name="11 Dec 2023" sheetId="8" r:id="rId6"/>
+    <sheet name="18 Dec 2023" sheetId="9" r:id="rId7"/>
+    <sheet name="26 Dec 2023 " sheetId="10" r:id="rId8"/>
+    <sheet name="2 Jan 2024" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="115">
   <si>
     <t>Task Name</t>
   </si>
@@ -100,39 +106,177 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Adhoc Testing</t>
+  </si>
+  <si>
+    <t>Johnson Benjamin</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
     <t>In Progress</t>
   </si>
   <si>
+    <t>Test case update (Select Approved Payment Instruction Template to Create New Payment Request section)</t>
+  </si>
+  <si>
+    <t>Hom page Keeps loading</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Garg Nikhil</t>
+  </si>
+  <si>
+    <t>To be Tested once fixed by Dev</t>
+  </si>
+  <si>
     <t>Total Manual Execution</t>
   </si>
   <si>
+    <t>New Module Testing</t>
+  </si>
+  <si>
+    <t>Kathhir</t>
+  </si>
+  <si>
+    <t>Select Approved Payment Instruction Template to Create New Payment Request section</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
+    <t>Space Required</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
     <t>Total Automation Execution</t>
   </si>
   <si>
+    <t xml:space="preserve">Vignesh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Test Scenarios provided by LIPI related to regression </t>
+  </si>
+  <si>
+    <t>Bug Retesting</t>
+  </si>
+  <si>
+    <t>User able to submit payment req. although user doesn’t have requestor role</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Bugs Identified</t>
   </si>
   <si>
+    <t>DEV bugs / changes Retesting</t>
+  </si>
+  <si>
+    <t>4 new changes given by DEV team</t>
+  </si>
+  <si>
+    <t>Approve Payment Request section</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <t>Development In Progress</t>
+  </si>
+  <si>
+    <t>Added Rush Request Comments showing error</t>
+  </si>
+  <si>
     <t>Total Bugs</t>
   </si>
   <si>
+    <t>Bug Created</t>
+  </si>
+  <si>
+    <t> Total 11 Resolved 8 Open 3</t>
+  </si>
+  <si>
+    <t>Amount – Not Support Decimal</t>
+  </si>
+  <si>
     <t>Manual Test Created</t>
   </si>
   <si>
+    <t>Error Message not Displayed</t>
+  </si>
+  <si>
     <t>Total Manual Case</t>
   </si>
   <si>
+    <t>Template Not visible in Edit Existing Grid</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>Automation Scripts Created</t>
   </si>
   <si>
+    <t>Template Not Visible in Approval Panel But Visible in Track/Edit Grid</t>
+  </si>
+  <si>
     <t>Total Automation Scripts</t>
   </si>
   <si>
+    <t>Delete Button in Edit Existing Payment</t>
+  </si>
+  <si>
+    <t>Particular BIC value is not accepted</t>
+  </si>
+  <si>
+    <t>Discard Status should be removed</t>
+  </si>
+  <si>
+    <t>Application takes more time to load during login</t>
+  </si>
+  <si>
+    <t>Optimization - On Click of Submit in Create Template</t>
+  </si>
+  <si>
+    <t>Mukherjee Trishit</t>
+  </si>
+  <si>
+    <t>Sometimes we get a message when we login after the application is timed out</t>
+  </si>
+  <si>
+    <t>Performance Issue in File Upload</t>
+  </si>
+  <si>
+    <t>Existing Attachment should be loaded when an Approved Template is edited</t>
+  </si>
+  <si>
+    <t>Error message is displayed when Template is Saved from Draft</t>
+  </si>
+  <si>
     <t>Defect ID</t>
   </si>
   <si>
+    <t>Week Data Type</t>
+  </si>
+  <si>
+    <t>Week Count</t>
+  </si>
+  <si>
+    <t>Total Data Type</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
     <t>Connect with Shantanu for KT</t>
   </si>
   <si>
@@ -148,18 +292,51 @@
     <t>No defects have been logged for the week</t>
   </si>
   <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
     <t>SQL Training/Learning</t>
   </si>
   <si>
     <t>2.Sprint Retrospective session</t>
   </si>
   <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
     <t>WSR</t>
   </si>
   <si>
     <t>3.Sprint planning session</t>
   </si>
   <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
     <t>No defects have been logged for the week.</t>
   </si>
   <si>
@@ -169,13 +346,28 @@
     <t>2.SQL trainings &amp;learning activity</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>3.Sprint retrospective &amp;planning sessions</t>
   </si>
   <si>
     <t>Yet to attend</t>
+  </si>
+  <si>
+    <t>3.Sprint sizing sessions</t>
+  </si>
+  <si>
+    <t>SQL learning</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Attend Sprint Sizing and Backlog Refinement call</t>
+  </si>
+  <si>
+    <t>Work on the developed sprint items for Testing and Test scenarios</t>
+  </si>
+  <si>
+    <t>Yet to start</t>
   </si>
   <si>
     <r>
@@ -196,17 +388,46 @@
     <t>3.Sprint retrospective &amp; planning sessions</t>
   </si>
   <si>
-    <t>3.Sprint sizing sessions</t>
+    <t>HICA-2933 (KT)</t>
+  </si>
+  <si>
+    <t>1.HICA-2933 (KT)</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend Sprint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>review and retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-2933 (KT training)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,8 +460,52 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,13 +518,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -277,28 +563,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,54 +975,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
-  <dimension ref="A1:Z9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -655,640 +1048,2569 @@
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45037</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45037</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y2" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3">
+        <v>45037</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="X4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="1">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2">
-        <v>34.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45247</v>
-      </c>
-      <c r="L2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5">
-        <v>45247</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2">
+      <c r="T5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="Q7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="X7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="Q8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="Q9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="Y3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y6" s="1" t="s">
+      <c r="X9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="Q10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="Q11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="Q12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="Q13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y7" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y8" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y9" s="1" t="s">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="1">
-        <v>0</v>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="Q14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="Q15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="Q16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="17:22">
+      <c r="Q17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22">
+      <c r="Q18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
-  <dimension ref="A1:Z9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="L2" s="4" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10">
+        <v>45247</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10">
+        <v>45247</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5">
-        <v>45254</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5">
-        <v>45254</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="N3" s="10"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="Y6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
-  <dimension ref="A1:Z9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10">
+        <v>45254</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="10">
+        <v>45254</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="L2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10">
+        <v>45268</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10">
         <v>45261</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7">
         <v>6.5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="G3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="10">
         <v>45261</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7">
         <v>0.5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="Y9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="G4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FAA013-2479-419E-A1DA-0D9E8D28A574}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="14">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687BBF7-D953-49AD-B9CD-800740D729EA}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="14">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="G3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="G4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781038EF-DF78-4173-9204-25E6B28E734D}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="14">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="G3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="G4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED6DE3-2091-4870-8A0F-884BBE010883}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>24</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="G4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE0518-3D24-4824-A5D1-60F97BE65C3E}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="14">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>22</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="31">
+        <v>45309</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="14">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="L3" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="G4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1465,6 +3787,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1473,44 +3801,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{116A344C-4A36-4D65-A284-2296D70A60F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{116A344C-4A36-4D65-A284-2296D70A60F0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}"/>
 </file>
--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4711142-95C2-48DA-A421-83D60AD70108}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBE8048E-826B-45E6-A6F0-BD6013923362}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="18 Dec 2023" sheetId="9" r:id="rId7"/>
     <sheet name="26 Dec 2023 " sheetId="10" r:id="rId8"/>
     <sheet name="2 Jan 2024" sheetId="11" r:id="rId9"/>
+    <sheet name="8 Jan 2024" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="119">
   <si>
     <t>Task Name</t>
   </si>
@@ -412,6 +413,29 @@
   </si>
   <si>
     <t>HICA-2933 (KT training)</t>
+  </si>
+  <si>
+    <t>Attended Daily Standup calls</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t>izing and backlog refinement</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Review &amp; Retrospective meeting</t>
+  </si>
+  <si>
+    <t>Sprint planning meeting</t>
   </si>
 </sst>
 </file>
@@ -615,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -692,10 +716,12 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,6 +1568,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBDBD9E-588E-4E46-9524-EBC32C725B0D}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="73.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="89.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="18" max="18" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="32"/>
+      <c r="B3" s="14"/>
+      <c r="G3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="G4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="Y4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="G5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="17">
+        <v>45309</v>
+      </c>
+      <c r="J5"/>
+      <c r="Y5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="Y6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="Y7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29"/>
+    <row r="9" spans="1:29"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <dimension ref="A1:AC9"/>
@@ -3370,7 +3684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE0518-3D24-4824-A5D1-60F97BE65C3E}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
@@ -3616,6 +3930,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3786,23 +4115,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{116A344C-4A36-4D65-A284-2296D70A60F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3810,5 +4124,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{116A344C-4A36-4D65-A284-2296D70A60F0}"/>
 </file>
--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27316"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD8F4B8-1CFD-4D55-8610-19C996F58A73}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F03B4F-B9ED-415D-9321-D438B5874955}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="70">
   <si>
     <t>Task Name</t>
   </si>
@@ -179,16 +179,16 @@
     <t>Total bugs</t>
   </si>
   <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
+    <t>2.Sprint sizing session</t>
+  </si>
+  <si>
+    <t>2.SQL trainings &amp;learning activity</t>
+  </si>
+  <si>
     <t> </t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
-  </si>
-  <si>
-    <t>2.Sprint sizing session</t>
-  </si>
-  <si>
-    <t>2.SQL trainings &amp;learning activity</t>
   </si>
   <si>
     <t>3.Sprint retrospective &amp;planning sessions</t>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1132,14 +1132,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -1156,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC641EB-F74E-4988-A5F8-B4E803CB56F5}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1198,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>2</v>
@@ -1207,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
@@ -1222,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>8</v>
@@ -1237,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="29" t="s">
         <v>12</v>
@@ -1261,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="X1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>19</v>
@@ -1285,7 +1281,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>24</v>
@@ -1294,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>63</v>
@@ -1303,13 +1299,13 @@
         <v>33</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>64</v>
@@ -1318,37 +1314,37 @@
         <v>49</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>68</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>29</v>
@@ -1357,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="18" t="s">
         <v>30</v>
@@ -1367,23 +1363,13 @@
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>69</v>
@@ -1394,7 +1380,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>54</v>
@@ -1403,37 +1389,37 @@
         <v>55</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>34</v>
@@ -1442,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>35</v>
@@ -1452,23 +1438,13 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>58</v>
@@ -1478,41 +1454,41 @@
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
       <c r="O4" s="38"/>
       <c r="P4" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="17" t="s">
         <v>38</v>
@@ -1521,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="18" t="s">
         <v>39</v>
@@ -1531,69 +1507,59 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="38"/>
       <c r="K5" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="17" t="s">
         <v>40</v>
@@ -1602,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="18" t="s">
         <v>41</v>
@@ -1612,77 +1578,67 @@
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A6" s="34"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="17" t="s">
         <v>42</v>
@@ -1691,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB6" s="18" t="s">
         <v>43</v>
@@ -1701,271 +1657,221 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="34"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
       <c r="AA8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z9" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
       <c r="AA9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC9" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1976,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U6" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2135,13 +2041,13 @@
         <v>13.5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -2150,7 +2056,7 @@
         <v>45254</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>34</v>
@@ -2220,14 +2126,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -2244,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R6" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2406,7 +2308,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -2483,14 +2385,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -2510,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FAA013-2479-419E-A1DA-0D9E8D28A574}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R6" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2637,7 +2535,7 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>53</v>
@@ -2646,10 +2544,10 @@
         <v>49</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R2" s="40" t="s">
         <v>28</v>
@@ -2674,7 +2572,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="14"/>
       <c r="J3" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>54</v>
@@ -2683,7 +2581,7 @@
         <v>55</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" s="13"/>
       <c r="Y3" s="16" t="s">
@@ -2756,14 +2654,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -2780,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687BBF7-D953-49AD-B9CD-800740D729EA}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R12" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2939,7 +2833,7 @@
         <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -3013,14 +2907,10 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3037,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781038EF-DF78-4173-9204-25E6B28E734D}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U9" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3196,7 +3086,7 @@
         <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -3270,14 +3160,10 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3294,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED6DE3-2091-4870-8A0F-884BBE010883}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="V22" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3448,7 +3334,7 @@
       <c r="B3" s="8"/>
       <c r="G3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -3517,14 +3403,10 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3541,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE0518-3D24-4824-A5D1-60F97BE65C3E}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="V6" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3766,14 +3648,10 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3790,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBDBD9E-588E-4E46-9524-EBC32C725B0D}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R12" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3832,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>2</v>
@@ -3841,7 +3719,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
@@ -3856,7 +3734,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>8</v>
@@ -3871,7 +3749,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="29" t="s">
         <v>12</v>
@@ -3895,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="X1" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>19</v>
@@ -3919,7 +3797,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>24</v>
@@ -3928,7 +3806,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>63</v>
@@ -3937,13 +3815,13 @@
         <v>33</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>64</v>
@@ -3952,37 +3830,37 @@
         <v>49</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R2" s="40" t="s">
         <v>28</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>29</v>
@@ -3991,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="17" t="s">
         <v>30</v>
@@ -4001,23 +3879,13 @@
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>65</v>
@@ -4026,13 +3894,13 @@
         <v>33</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>54</v>
@@ -4041,37 +3909,37 @@
         <v>55</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>34</v>
@@ -4080,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="17" t="s">
         <v>35</v>
@@ -4090,23 +3958,13 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>66</v>
@@ -4115,44 +3973,44 @@
         <v>33</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
       <c r="O4" s="38"/>
       <c r="P4" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="17" t="s">
         <v>38</v>
@@ -4161,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="17" t="s">
         <v>39</v>
@@ -4171,23 +4029,13 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>58</v>
@@ -4200,46 +4048,46 @@
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="17" t="s">
         <v>40</v>
@@ -4248,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="17" t="s">
         <v>41</v>
@@ -4258,77 +4106,67 @@
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A6" s="34"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="17" t="s">
         <v>42</v>
@@ -4337,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB6" s="17" t="s">
         <v>43</v>
@@ -4347,271 +4185,221 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="34"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W8" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
       <c r="AA8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z9" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
       <c r="AA9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC9" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4619,9 +4407,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4802,16 +4593,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4819,5 +4607,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}"/>
 </file>
--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F03B4F-B9ED-415D-9321-D438B5874955}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DEA04-C171-4A07-97E6-65460A0C320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="71">
   <si>
     <t>Task Name</t>
   </si>
@@ -290,12 +290,15 @@
   <si>
     <t>Sizing and Backlog Refinement meeting</t>
   </si>
+  <si>
+    <t>Project Metrics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,37 +904,37 @@
       <selection activeCell="AB8" sqref="AB8:AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -1141,8 +1144,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1152,41 +1155,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC641EB-F74E-4988-A5F8-B4E803CB56F5}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC33"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1267,13 +1270,13 @@
       </c>
       <c r="AA1" s="21"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AC1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -1437,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1506,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1731,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1802,7 +1805,7 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1886,37 +1889,37 @@
       <selection activeCell="AB8" sqref="AB8:AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2135,8 +2138,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2150,37 +2153,37 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2394,8 +2397,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
@@ -2412,37 +2415,37 @@
       <selection activeCell="AB8" sqref="AB8:AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="10"/>
@@ -2597,7 +2600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="12"/>
@@ -2617,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="73.2" x14ac:dyDescent="0.4">
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
@@ -2635,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2663,8 +2666,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2678,37 +2681,37 @@
       <selection activeCell="AB8" sqref="AB8:AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -2852,7 +2855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2916,8 +2919,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2931,37 +2934,37 @@
       <selection activeCell="AB8" sqref="AB8:AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -3105,7 +3108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3169,8 +3172,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3184,37 +3187,37 @@
       <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>58</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4"/>
@@ -3353,7 +3356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>50</v>
@@ -3374,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3412,8 +3415,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3427,37 +3430,37 @@
       <selection activeCell="AB8" sqref="AB8:AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>62</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
@@ -3619,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3657,8 +3660,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29"/>
-    <row r="9" spans="1:29"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3672,37 +3675,37 @@
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -3957,7 +3960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4105,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -4184,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -4259,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4330,7 +4333,7 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -4407,15 +4410,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -4592,6 +4586,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4599,13 +4602,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DC7C-C44C-40C4-930B-4839141BDE98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DC7C-C44C-40C4-930B-4839141BDE98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DEA04-C171-4A07-97E6-65460A0C320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D06990-F35C-4BB1-B26E-AC63FFAABF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="26 Dec 2023" sheetId="11" r:id="rId8"/>
     <sheet name="2 Jan 2024" sheetId="12" r:id="rId9"/>
     <sheet name="8 Jan 2024" sheetId="13" r:id="rId10"/>
+    <sheet name="15 Jan 2024" sheetId="14" r:id="rId11"/>
+    <sheet name="22 Jan 2024" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="74">
   <si>
     <t>Task Name</t>
   </si>
@@ -270,7 +272,7 @@
         <sz val="11"/>
         <color rgb="FF242424"/>
         <rFont val="Segoe UI"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>izing and backlog refinement</t>
     </r>
@@ -292,13 +294,33 @@
   </si>
   <si>
     <t>Project Metrics</t>
+  </si>
+  <si>
+    <t>Exploring th HRIS DB&amp; Reference tickets</t>
+  </si>
+  <si>
+    <t>Exploring the HRIS DB&amp; Reference tickets</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sprint Review and Retrospective meeting</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +366,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -357,7 +379,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -382,7 +404,38 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -532,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -618,6 +671,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,37 +981,37 @@
       <selection activeCell="AB8" sqref="AB8:AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -1120,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -1134,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -1144,8 +1221,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1155,41 +1232,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC641EB-F74E-4988-A5F8-B4E803CB56F5}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -1365,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="26"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -1440,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1509,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1580,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1659,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1734,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1805,7 +1882,7 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="34"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1875,6 +1952,818 @@
       </c>
       <c r="AB9" s="31"/>
       <c r="AC9" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8D9F62-9536-4B80-BC5A-8C9D5E79B9A0}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="47">
+        <v>9</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="48">
+        <v>9</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="55"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="51"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B9DFC2-825A-4C2A-9695-23B32E32B22C}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="47">
+        <v>8</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="48">
+        <v>8</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="55"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="51"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1889,37 +2778,37 @@
       <selection activeCell="AB8" sqref="AB8:AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2036,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -2074,7 +2963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2100,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -2114,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2128,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2138,8 +3027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2153,37 +3042,37 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +3144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2302,7 +3191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -2332,7 +3221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2397,8 +3286,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
@@ -2415,37 +3304,37 @@
       <selection activeCell="AB8" sqref="AB8:AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +3406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2568,7 +3457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="10"/>
@@ -2600,7 +3489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="12"/>
@@ -2620,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
@@ -2638,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -2656,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2666,8 +3555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2675,43 +3564,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687BBF7-D953-49AD-B9CD-800740D729EA}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="R12" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8:AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2783,7 +3672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2826,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -2855,7 +3744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
@@ -2881,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -2895,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2909,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -2919,8 +3808,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2928,43 +3815,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781038EF-DF78-4173-9204-25E6B28E734D}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="U9" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8:AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -3079,7 +3966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -3108,7 +3995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
@@ -3134,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3148,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3162,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3172,8 +4059,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3181,43 +4066,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED6DE3-2091-4870-8A0F-884BBE010883}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="V22" workbookViewId="0">
       <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +4174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>58</v>
       </c>
@@ -3332,7 +4217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4"/>
@@ -3356,7 +4241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>50</v>
@@ -3377,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3391,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3405,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3415,8 +4300,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3424,43 +4307,43 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE0518-3D24-4824-A5D1-60F97BE65C3E}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="V6" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8:AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3532,7 +4415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
@@ -3577,7 +4460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>62</v>
       </c>
@@ -3605,7 +4488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
@@ -3622,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3636,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3650,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3660,8 +4543,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3675,37 +4556,37 @@
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +4673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -3881,7 +4762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="26"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -3960,7 +4841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -4031,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4108,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -4187,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -4262,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4333,7 +5214,7 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="34"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -4410,6 +5291,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -4586,22 +5482,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DC7C-C44C-40C4-930B-4839141BDE98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4618,21 +5516,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D06990-F35C-4BB1-B26E-AC63FFAABF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F368EB1-4BFE-44B7-8A03-7961FAFCD589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="2" r:id="rId1"/>
@@ -981,37 +981,37 @@
       <selection activeCell="AB8" sqref="AB8:AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -1221,8 +1221,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1236,37 +1236,37 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -1517,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1882,7 +1882,7 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1963,12 +1963,12 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
         <v>71</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="55"/>
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
@@ -2145,7 +2145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="51"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -2328,7 +2328,7 @@
       <c r="AB8" s="48"/>
       <c r="AC8" s="48"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -2368,13 +2368,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B9DFC2-825A-4C2A-9695-23B32E32B22C}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
         <v>71</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="55"/>
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
@@ -2551,7 +2551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="51"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -2734,7 +2734,7 @@
       <c r="AB8" s="48"/>
       <c r="AC8" s="48"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -2778,37 +2778,37 @@
       <selection activeCell="AB8" sqref="AB8:AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3027,8 +3027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3042,37 +3042,37 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3286,8 +3286,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
@@ -3304,37 +3304,37 @@
       <selection activeCell="AB8" sqref="AB8:AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="10"/>
@@ -3489,7 +3489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="12"/>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="73.2" x14ac:dyDescent="0.4">
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3555,8 +3555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3570,37 +3570,37 @@
       <selection activeCell="AB8" sqref="AB8:AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -3744,7 +3744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -3821,37 +3821,37 @@
       <selection activeCell="AB8" sqref="AB8:AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -3995,7 +3995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -4072,37 +4072,37 @@
       <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>58</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4"/>
@@ -4241,7 +4241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>50</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -4309,41 +4309,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE0518-3D24-4824-A5D1-60F97BE65C3E}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="V6" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC23"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4409,13 +4409,13 @@
       </c>
       <c r="AA1" s="21"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>62</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y5" s="16" t="s">
         <v>40</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y6" s="16" t="s">
         <v>42</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" s="17" t="s">
@@ -4552,41 +4552,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBDBD9E-588E-4E46-9524-EBC32C725B0D}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="R12" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4667,13 +4667,13 @@
       </c>
       <c r="AA1" s="21"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -5214,7 +5214,7 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -5291,21 +5291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -5482,24 +5467,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DC7C-C44C-40C4-930B-4839141BDE98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5516,4 +5499,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F368EB1-4BFE-44B7-8A03-7961FAFCD589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73BFF8F-34AE-4030-A54F-9B9793CCF96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="27 Nov 2023" sheetId="7" r:id="rId4"/>
     <sheet name="4 Dec 2023" sheetId="8" r:id="rId5"/>
     <sheet name="11 Dec 2023" sheetId="9" r:id="rId6"/>
-    <sheet name="18 Dec 2023 " sheetId="10" r:id="rId7"/>
+    <sheet name="18 Dec 2023" sheetId="10" r:id="rId7"/>
     <sheet name="26 Dec 2023" sheetId="11" r:id="rId8"/>
     <sheet name="2 Jan 2024" sheetId="12" r:id="rId9"/>
     <sheet name="8 Jan 2024" sheetId="13" r:id="rId10"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="68">
   <si>
     <t>Task Name</t>
   </si>
@@ -106,18 +106,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Week Data Type</t>
-  </si>
-  <si>
-    <t>Week Count</t>
-  </si>
-  <si>
-    <t>Total Data Type</t>
-  </si>
-  <si>
-    <t>Total Count</t>
-  </si>
-  <si>
     <t>Connect with Shantanu for KT</t>
   </si>
   <si>
@@ -136,12 +124,6 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
     <t>SQL Training/Learning</t>
   </si>
   <si>
@@ -151,37 +133,10 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
     <t>WSR</t>
   </si>
   <si>
     <t>3.Sprint planning session</t>
-  </si>
-  <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
   </si>
   <si>
     <t>2.Sprint sizing session</t>
@@ -293,9 +248,6 @@
     <t>Sizing and Backlog Refinement meeting</t>
   </si>
   <si>
-    <t>Project Metrics</t>
-  </si>
-  <si>
     <t>Exploring th HRIS DB&amp; Reference tickets</t>
   </si>
   <si>
@@ -315,12 +267,42 @@
       <t>Sprint Review and Retrospective meeting</t>
     </r>
   </si>
+  <si>
+    <t>Activity This Week</t>
+  </si>
+  <si>
+    <t>Count.</t>
+  </si>
+  <si>
+    <t>Project Metrics Since Inception</t>
+  </si>
+  <si>
+    <t>Count..</t>
+  </si>
+  <si>
+    <t>Manual test cases created</t>
+  </si>
+  <si>
+    <t>Manual test cases conducted</t>
+  </si>
+  <si>
+    <t>Automation test cases created</t>
+  </si>
+  <si>
+    <t>Automation test cases processed</t>
+  </si>
+  <si>
+    <t>Bugs identified</t>
+  </si>
+  <si>
+    <t>Automation coverage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,14 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -458,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -525,19 +499,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -585,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,13 +588,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -649,50 +608,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -977,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="R5" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC15"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1070,152 +1027,152 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>34.5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5">
         <v>45247</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="5">
         <v>45247</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -1233,7 +1190,7 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1267,691 +1224,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
+      <c r="X1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="E2" s="29">
         <v>33</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="31">
-        <v>33</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>47</v>
+      <c r="F2" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>29</v>
+      <c r="M2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AA2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>30</v>
+      <c r="AA2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>47</v>
+      <c r="A3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>34</v>
+      <c r="K3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AA3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>35</v>
+      <c r="AA3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
-        <v>47</v>
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AA4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="18" t="s">
-        <v>39</v>
+      <c r="AA4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>40</v>
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AA5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="18" t="s">
-        <v>41</v>
+      <c r="AA5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>42</v>
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AA6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>43</v>
+      <c r="AA6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>47</v>
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
-      <c r="AA7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="18" t="s">
-        <v>44</v>
+      <c r="AA7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
     </row>
     <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1962,402 +1919,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8D9F62-9536-4B80-BC5A-8C9D5E79B9A0}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="44" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="43">
+        <v>9</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="44" t="s">
+      <c r="E2" s="44">
+        <v>9</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="47">
-        <v>9</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="48">
-        <v>9</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="35" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="55"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="54">
+      <c r="Z4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44"/>
+      <c r="AB6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" s="54">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,402 +2324,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B9DFC2-825A-4C2A-9695-23B32E32B22C}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="44" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="43">
+        <v>8</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="44" t="s">
+      <c r="E2" s="44">
+        <v>8</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="47">
-        <v>8</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="48">
-        <v>8</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="54">
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="50">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="55"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="54">
+      <c r="A3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="54">
+    <row r="4" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44"/>
+      <c r="AB6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" s="54">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2774,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="U6" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC18"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2867,161 +2822,161 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="5">
         <v>45254</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+      <c r="R2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>13.5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5">
         <v>45254</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3038,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="R6" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3131,156 +3086,156 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5">
         <v>45268</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="5">
         <v>45261</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+      <c r="R2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>6.5</v>
       </c>
       <c r="G3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5">
         <v>45261</v>
       </c>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3300,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FAA013-2479-419E-A1DA-0D9E8D28A574}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="R6" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC19"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3393,163 +3348,163 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>51</v>
+      <c r="G2" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="14"/>
       <c r="J3" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O3" s="13"/>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3566,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687BBF7-D953-49AD-B9CD-800740D729EA}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="R12" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC29"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3659,57 +3614,57 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+      <c r="R2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
@@ -3719,26 +3674,26 @@
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
@@ -3746,53 +3701,53 @@
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
@@ -3801,8 +3756,8 @@
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -3817,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781038EF-DF78-4173-9204-25E6B28E734D}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="U9" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8:AC22"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3910,57 +3865,57 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+      <c r="R2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
@@ -3970,26 +3925,26 @@
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
@@ -3997,53 +3952,53 @@
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
@@ -4052,8 +4007,8 @@
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -4068,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED6DE3-2091-4870-8A0F-884BBE010883}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="V22" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4161,57 +4116,57 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>58</v>
+      <c r="A2" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="8">
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>24</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>58</v>
+      <c r="G2" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+      <c r="R2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
@@ -4222,20 +4177,20 @@
       <c r="B3" s="8"/>
       <c r="G3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
@@ -4244,47 +4199,47 @@
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
@@ -4293,8 +4248,8 @@
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -4309,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE0518-3D24-4824-A5D1-60F97BE65C3E}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4402,87 +4357,87 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="44" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>51</v>
+      <c r="A2" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="8">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>22</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="25">
+      <c r="G2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="23">
         <v>45309</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>49</v>
+      <c r="L2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>29</v>
+      <c r="R2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>62</v>
+      <c r="A3" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="8">
         <v>11</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="L3" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>55</v>
+      <c r="L3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="Y3" s="16" t="s">
-        <v>34</v>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
@@ -4492,42 +4447,42 @@
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
-      <c r="Y4" s="16" t="s">
-        <v>38</v>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
+      <c r="AB4" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y5" s="16" t="s">
-        <v>40</v>
+      <c r="Y5" t="s">
+        <v>65</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y6" s="16" t="s">
-        <v>42</v>
+      <c r="Y6" t="s">
+        <v>66</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
@@ -4536,8 +4491,8 @@
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -4552,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBDBD9E-588E-4E46-9524-EBC32C725B0D}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4587,703 +4542,703 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="20" t="s">
+      <c r="X1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28">
+        <v>25</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="E2" s="29">
         <v>25</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="F2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="31">
-        <v>25</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>29</v>
+      <c r="S2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
-      <c r="AA2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
+      <c r="AA2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>34</v>
+      <c r="A3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
-      <c r="AA3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>35</v>
+      <c r="AA3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="32" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
-      <c r="AA6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="17" t="s">
-        <v>43</v>
+      <c r="AA6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>47</v>
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
-      <c r="AA7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>44</v>
+      <c r="AA7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>67</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
     </row>
     <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="X9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5291,6 +5246,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -5467,22 +5437,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DC7C-C44C-40C4-930B-4839141BDE98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5499,21 +5471,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceslimited01-my.sharepoint.com/personal/meenakshi_kasi_cesltd_com/Documents/Oaktree/WSR_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73BFF8F-34AE-4030-A54F-9B9793CCF96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B73BFF8F-34AE-4030-A54F-9B9793CCF96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D03567E2-045C-430B-BDD2-8619144F406D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="8 Jan 2024" sheetId="13" r:id="rId10"/>
     <sheet name="15 Jan 2024" sheetId="14" r:id="rId11"/>
     <sheet name="22 Jan 2024" sheetId="15" r:id="rId12"/>
+    <sheet name="29 Jan 2024" sheetId="16" r:id="rId13"/>
+    <sheet name="5 Feb 2024" sheetId="17" r:id="rId14"/>
+    <sheet name="12 Feb 2024" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="70">
   <si>
     <t>Task Name</t>
   </si>
@@ -296,6 +299,34 @@
   </si>
   <si>
     <t>Automation coverage</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint sizing session</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -934,41 +965,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1087,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1114,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -1140,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y5" t="s">
         <v>65</v>
       </c>
@@ -1154,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y6" t="s">
         <v>66</v>
       </c>
@@ -1168,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -1178,8 +1209,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1193,37 +1224,37 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>43</v>
       </c>
@@ -1399,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
@@ -1474,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="32"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1543,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -1614,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -1693,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1768,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -1839,7 +1870,7 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1923,9 +1954,9 @@
       <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="42" t="s">
         <v>55</v>
       </c>
@@ -2058,7 +2089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="51"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -2101,7 +2132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="47"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -2140,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -2179,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -2218,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -2253,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -2284,7 +2315,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -2324,13 +2355,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B9DFC2-825A-4C2A-9695-23B32E32B22C}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+    <sheetView topLeftCell="P3" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2437,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="42" t="s">
         <v>55</v>
       </c>
@@ -2463,7 +2494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="51"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -2506,7 +2537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="47"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -2545,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -2584,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -2623,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -2658,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -2689,7 +2720,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -2725,6 +2756,1233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F5E75F-4796-4983-BBBD-D4C5B510D344}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="43">
+        <v>13.5</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="44">
+        <v>13.5</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="74" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44"/>
+      <c r="AB6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FDA18A-100A-4C93-BECD-F83F0FA02937}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="43">
+        <v>11</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="44">
+        <v>11</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="74" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44"/>
+      <c r="AB6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83139DC9-AD99-4AEF-AB4C-0F2B978A6F1F}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="74" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="43">
+        <v>7.5</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="44">
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="66.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44"/>
+      <c r="AB6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <dimension ref="A1:AC9"/>
@@ -2733,37 +3991,37 @@
       <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +4093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -2880,7 +4138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2918,7 +4176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -2944,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y5" t="s">
         <v>65</v>
       </c>
@@ -2958,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y6" t="s">
         <v>66</v>
       </c>
@@ -2972,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -2982,8 +4240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2997,37 +4255,37 @@
       <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +4357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3146,7 +4404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -3176,7 +4434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3203,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y5" t="s">
         <v>65</v>
       </c>
@@ -3217,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y6" t="s">
         <v>66</v>
       </c>
@@ -3231,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -3241,8 +4499,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
@@ -3259,37 +4517,37 @@
       <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +4619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -3412,7 +4670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="10"/>
@@ -3444,7 +4702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="12"/>
@@ -3464,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
@@ -3482,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -3500,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -3510,8 +4768,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3525,37 +4783,37 @@
       <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +4885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -3670,7 +4928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -3699,7 +4957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
@@ -3725,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" t="s">
         <v>65</v>
       </c>
@@ -3739,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" t="s">
         <v>66</v>
       </c>
@@ -3753,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -3776,37 +5034,37 @@
       <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +5136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -3921,7 +5179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
@@ -3950,7 +5208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
@@ -3976,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" t="s">
         <v>65</v>
       </c>
@@ -3990,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" t="s">
         <v>66</v>
       </c>
@@ -4004,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -4027,37 +5285,37 @@
       <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4129,7 +5387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>43</v>
       </c>
@@ -4172,7 +5430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4"/>
@@ -4196,7 +5454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>35</v>
@@ -4217,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" t="s">
         <v>65</v>
       </c>
@@ -4231,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" t="s">
         <v>66</v>
       </c>
@@ -4245,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -4268,37 +5526,37 @@
       <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4370,7 +5628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
@@ -4415,7 +5673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>47</v>
       </c>
@@ -4443,7 +5701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
@@ -4460,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y5" t="s">
         <v>65</v>
       </c>
@@ -4474,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y6" t="s">
         <v>66</v>
       </c>
@@ -4488,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
@@ -4511,37 +5769,37 @@
       <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +5886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>43</v>
       </c>
@@ -4717,7 +5975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
@@ -4796,7 +6054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="32"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -4867,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -4944,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -5023,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -5098,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -5169,7 +6427,7 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -5246,18 +6504,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5438,18 +6696,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dataSources/WSR/HRIS.xlsx
+++ b/dataSources/WSR/HRIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27504"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceslimited01-my.sharepoint.com/personal/meenakshi_kasi_cesltd_com/Documents/Oaktree/WSR_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B73BFF8F-34AE-4030-A54F-9B9793CCF96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D03567E2-045C-430B-BDD2-8619144F406D}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{B73BFF8F-34AE-4030-A54F-9B9793CCF96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2CDB941-954E-4F30-AD44-806E358D3C20}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="29 Jan 2024" sheetId="16" r:id="rId13"/>
     <sheet name="5 Feb 2024" sheetId="17" r:id="rId14"/>
     <sheet name="12 Feb 2024" sheetId="18" r:id="rId15"/>
+    <sheet name="19 Feb 2024" sheetId="19" r:id="rId16"/>
+    <sheet name="26 Feb 2024" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="71">
   <si>
     <t>Task Name</t>
   </si>
@@ -109,6 +111,18 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Activity This Week</t>
+  </si>
+  <si>
+    <t>Count.</t>
+  </si>
+  <si>
+    <t>Project Metrics Since Inception</t>
+  </si>
+  <si>
+    <t>Count..</t>
+  </si>
+  <si>
     <t>Connect with Shantanu for KT</t>
   </si>
   <si>
@@ -127,6 +141,9 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
+    <t>Manual test cases created</t>
+  </si>
+  <si>
     <t>SQL Training/Learning</t>
   </si>
   <si>
@@ -136,10 +153,25 @@
     <t>Completed</t>
   </si>
   <si>
+    <t>Manual test cases conducted</t>
+  </si>
+  <si>
     <t>WSR</t>
   </si>
   <si>
     <t>3.Sprint planning session</t>
+  </si>
+  <si>
+    <t>Automation test cases created</t>
+  </si>
+  <si>
+    <t>Automation test cases processed</t>
+  </si>
+  <si>
+    <t>Bugs identified</t>
+  </si>
+  <si>
+    <t>Automation coverage</t>
   </si>
   <si>
     <t>2.Sprint sizing session</t>
@@ -271,36 +303,6 @@
     </r>
   </si>
   <si>
-    <t>Activity This Week</t>
-  </si>
-  <si>
-    <t>Count.</t>
-  </si>
-  <si>
-    <t>Project Metrics Since Inception</t>
-  </si>
-  <si>
-    <t>Count..</t>
-  </si>
-  <si>
-    <t>Manual test cases created</t>
-  </si>
-  <si>
-    <t>Manual test cases conducted</t>
-  </si>
-  <si>
-    <t>Automation test cases created</t>
-  </si>
-  <si>
-    <t>Automation test cases processed</t>
-  </si>
-  <si>
-    <t>Bugs identified</t>
-  </si>
-  <si>
-    <t>Automation coverage</t>
-  </si>
-  <si>
     <r>
       <t>Attend</t>
     </r>
@@ -328,12 +330,26 @@
       <t> Sprint sizing session</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t> Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +457,18 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -577,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -683,6 +711,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,37 +1004,37 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,159 +1093,159 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>34.5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5">
         <v>45247</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5">
         <v>45247</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="14.45">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N3" s="5"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15.6">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.45">
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.45">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.45"/>
+    <row r="9" spans="1:29" ht="14.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1224,37 +1259,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>2</v>
@@ -1271,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>4</v>
@@ -1286,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>8</v>
@@ -1301,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>12</v>
@@ -1325,618 +1359,618 @@
         <v>18</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" s="28">
         <v>33</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29">
         <v>33</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AA4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.45">
       <c r="A5" s="32"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="36"/>
       <c r="K5" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AA5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="A6" s="32"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AA6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.45">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="A8" s="32"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="29"/>
       <c r="AA8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="A9" s="32"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="29"/>
       <c r="AC9" s="29"/>
@@ -1954,9 +1988,9 @@
       <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2020,54 +2054,54 @@
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="99.6" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43">
         <v>9</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="44">
         <v>9</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="45" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
       <c r="L2" s="33" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="44"/>
       <c r="R2" s="48" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -2076,20 +2110,20 @@
       <c r="W2" s="44"/>
       <c r="X2" s="44"/>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="49">
         <v>0</v>
       </c>
       <c r="AA2" s="40"/>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="149.1" thickBot="1">
       <c r="A3" s="51"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -2102,10 +2136,10 @@
       <c r="J3" s="52"/>
       <c r="K3" s="47"/>
       <c r="L3" s="34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
@@ -2119,20 +2153,20 @@
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="49">
         <v>0</v>
       </c>
       <c r="AA3" s="44"/>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="17.100000000000001" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -2158,20 +2192,20 @@
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="49">
         <v>0</v>
       </c>
       <c r="AA4" s="44"/>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -2197,20 +2231,20 @@
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="49">
         <v>0</v>
       </c>
       <c r="AA5" s="44"/>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29">
       <c r="A6" s="47"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -2236,20 +2270,20 @@
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="49">
         <v>0</v>
       </c>
       <c r="AA6" s="44"/>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29">
       <c r="A7" s="47"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -2278,13 +2312,13 @@
       <c r="Z7" s="49"/>
       <c r="AA7" s="44"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" s="47"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -2315,7 +2349,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" s="47"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -2359,9 +2393,9 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2425,54 +2459,54 @@
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116.1" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43">
         <v>8</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="44">
         <v>8</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="45" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
       <c r="L2" s="33" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="44"/>
       <c r="R2" s="48" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -2481,20 +2515,20 @@
       <c r="W2" s="44"/>
       <c r="X2" s="44"/>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="49">
         <v>0</v>
       </c>
       <c r="AA2" s="40"/>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="149.1" thickBot="1">
       <c r="A3" s="51"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -2507,10 +2541,10 @@
       <c r="J3" s="52"/>
       <c r="K3" s="47"/>
       <c r="L3" s="34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
@@ -2524,20 +2558,20 @@
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="49">
         <v>0</v>
       </c>
       <c r="AA3" s="44"/>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="17.100000000000001" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -2563,20 +2597,20 @@
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="49">
         <v>0</v>
       </c>
       <c r="AA4" s="44"/>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -2602,20 +2636,20 @@
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="49">
         <v>0</v>
       </c>
       <c r="AA5" s="44"/>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29">
       <c r="A6" s="47"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -2641,20 +2675,20 @@
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="49">
         <v>0</v>
       </c>
       <c r="AA6" s="44"/>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29">
       <c r="A7" s="47"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -2683,13 +2717,13 @@
       <c r="Z7" s="49"/>
       <c r="AA7" s="44"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" s="47"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -2720,7 +2754,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" s="47"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -2761,12 +2795,12 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2830,38 +2864,38 @@
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116.1" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43">
         <v>13.5</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="44">
         <v>13.5</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="45" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="46"/>
@@ -2870,14 +2904,14 @@
         <v>68</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="44"/>
       <c r="R2" s="48" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -2886,20 +2920,20 @@
       <c r="W2" s="44"/>
       <c r="X2" s="44"/>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="49">
         <v>0</v>
       </c>
       <c r="AA2" s="40"/>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="149.1" thickBot="1">
       <c r="A3" s="51"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -2912,10 +2946,10 @@
       <c r="J3" s="52"/>
       <c r="K3" s="47"/>
       <c r="L3" s="34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
@@ -2929,20 +2963,20 @@
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="49">
         <v>0</v>
       </c>
       <c r="AA3" s="44"/>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="74" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="74.099999999999994" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -2955,10 +2989,10 @@
       <c r="J4" s="34"/>
       <c r="K4" s="47"/>
       <c r="L4" s="45" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
@@ -2972,20 +3006,20 @@
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="49">
         <v>0</v>
       </c>
       <c r="AA4" s="44"/>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -3011,20 +3045,20 @@
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="49">
         <v>0</v>
       </c>
       <c r="AA5" s="44"/>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29">
       <c r="A6" s="47"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -3050,20 +3084,20 @@
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="49">
         <v>0</v>
       </c>
       <c r="AA6" s="44"/>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29">
       <c r="A7" s="47"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -3092,13 +3126,13 @@
       <c r="Z7" s="49"/>
       <c r="AA7" s="44"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" s="47"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -3129,7 +3163,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" s="47"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -3169,13 +3203,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FDA18A-100A-4C93-BECD-F83F0FA02937}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3239,38 +3273,38 @@
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116.1" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43">
         <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="44">
         <v>11</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="45" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="46"/>
@@ -3279,14 +3313,14 @@
         <v>68</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="44"/>
       <c r="R2" s="48" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -3295,20 +3329,20 @@
       <c r="W2" s="44"/>
       <c r="X2" s="44"/>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="49">
         <v>0</v>
       </c>
       <c r="AA2" s="40"/>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="149.1" thickBot="1">
       <c r="A3" s="51"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -3321,10 +3355,10 @@
       <c r="J3" s="52"/>
       <c r="K3" s="47"/>
       <c r="L3" s="34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="52"/>
@@ -3338,20 +3372,20 @@
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="49">
         <v>0</v>
       </c>
       <c r="AA3" s="44"/>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="74" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="74.099999999999994" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -3364,10 +3398,10 @@
       <c r="J4" s="34"/>
       <c r="K4" s="47"/>
       <c r="L4" s="45" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
@@ -3381,20 +3415,20 @@
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="49">
         <v>0</v>
       </c>
       <c r="AA4" s="44"/>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -3420,20 +3454,20 @@
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="49">
         <v>0</v>
       </c>
       <c r="AA5" s="44"/>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29">
       <c r="A6" s="47"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -3459,20 +3493,20 @@
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="49">
         <v>0</v>
       </c>
       <c r="AA6" s="44"/>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29">
       <c r="A7" s="47"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -3501,13 +3535,13 @@
       <c r="Z7" s="49"/>
       <c r="AA7" s="44"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" s="47"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -3538,7 +3572,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" s="47"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -3578,13 +3612,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83139DC9-AD99-4AEF-AB4C-0F2B978A6F1F}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3648,54 +3682,54 @@
       </c>
       <c r="X1" s="40"/>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="74" thickBot="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="74.099999999999994" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43">
         <v>7.5</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="44">
         <v>7.5</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="45" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
       <c r="L2" s="45" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="44"/>
       <c r="R2" s="48" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -3704,20 +3738,20 @@
       <c r="W2" s="44"/>
       <c r="X2" s="44"/>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="49">
         <v>0</v>
       </c>
       <c r="AA2" s="40"/>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="66.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="66.599999999999994" thickBot="1">
       <c r="A3" s="51"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -3733,7 +3767,7 @@
         <v>69</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
@@ -3747,20 +3781,20 @@
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="49">
         <v>0</v>
       </c>
       <c r="AA3" s="44"/>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="149.1" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -3773,10 +3807,10 @@
       <c r="J4" s="34"/>
       <c r="K4" s="47"/>
       <c r="L4" s="34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N4" s="52"/>
       <c r="O4" s="52"/>
@@ -3790,20 +3824,20 @@
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="49">
         <v>0</v>
       </c>
       <c r="AA4" s="44"/>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -3829,20 +3863,20 @@
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="49">
         <v>0</v>
       </c>
       <c r="AA5" s="44"/>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29">
       <c r="A6" s="47"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -3868,20 +3902,20 @@
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="49">
         <v>0</v>
       </c>
       <c r="AA6" s="44"/>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29">
       <c r="A7" s="47"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -3910,13 +3944,13 @@
       <c r="Z7" s="49"/>
       <c r="AA7" s="44"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" s="47"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -3947,7 +3981,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" s="47"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -3983,6 +4017,840 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7EB516-54B2-43EC-91AE-67A20F2C2333}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="25" max="25" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="76.5">
+      <c r="A2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="43">
+        <v>7.5</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="44">
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="115.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="148.5">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44"/>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F66CCCC-15D0-4ABE-920B-163704176BD3}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="25" max="25" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="76.5">
+      <c r="A2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="43">
+        <v>8</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="44">
+        <v>8</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="115.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="148.5">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44"/>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <dimension ref="A1:AC9"/>
@@ -3991,37 +4859,37 @@
       <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4080,168 +4948,168 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5">
         <v>45254</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="14.45">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>13.5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5">
         <v>45254</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15.6">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.45">
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.45">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.45"/>
+    <row r="9" spans="1:29" ht="14.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4255,37 +5123,36 @@
       <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4344,163 +5211,163 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5">
         <v>45268</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5">
         <v>45261</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="14.45">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>6.5</v>
       </c>
       <c r="G3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5">
         <v>45261</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15.6">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.45">
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.45">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.45"/>
+    <row r="9" spans="1:29" ht="14.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
@@ -4517,37 +5384,36 @@
       <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4606,103 +5472,103 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="16.5">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="14"/>
       <c r="J3" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O3" s="13"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="16.5">
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="12"/>
@@ -4710,66 +5576,66 @@
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="16.5">
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.45">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:29" ht="14.45"/>
+    <row r="9" spans="1:29" ht="14.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4783,37 +5649,36 @@
       <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4872,150 +5737,150 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5"/>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1">
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -5034,37 +5899,36 @@
       <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5123,150 +5987,150 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5"/>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1">
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -5285,37 +6149,36 @@
       <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5374,140 +6237,140 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8">
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>24</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5"/>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="G4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1">
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -5526,37 +6389,36 @@
       <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5615,142 +6477,142 @@
         <v>18</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>22</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I2" s="23">
         <v>45309</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="5"/>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8">
         <v>11</v>
       </c>
       <c r="G3" s="4"/>
       <c r="L3" s="25" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="5"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1">
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1">
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
@@ -5769,37 +6631,36 @@
       <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5807,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>2</v>
@@ -5816,7 +6677,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>4</v>
@@ -5831,7 +6692,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>8</v>
@@ -5846,7 +6707,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>12</v>
@@ -5870,630 +6731,630 @@
         <v>18</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AA1"/>
       <c r="AB1" s="19" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" s="28">
         <v>25</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29">
         <v>25</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" s="30" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="17">
         <v>0</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="I3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>40</v>
-      </c>
       <c r="N3" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="17">
         <v>0</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="30" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
       <c r="AA4" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.45">
       <c r="A5" s="32"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
       </c>
       <c r="AA5" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="A6" s="32"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="17">
         <v>0</v>
       </c>
       <c r="AA6" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.45">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="A8" s="32"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="29"/>
       <c r="AA8" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="A9" s="32"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="U9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="X9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="29"/>
       <c r="AC9" s="29"/>
@@ -6513,12 +7374,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -6695,38 +7550,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29193C2-B60A-4C8F-98F4-6DAFC151BEA8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DC7C-C44C-40C4-930B-4839141BDE98}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D928DC7C-C44C-40C4-930B-4839141BDE98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D3E94B-B3CD-49E3-B7F9-3A77EC1095FB}"/>
 </file>